--- a/ResultsPrediction/rosegazzetta9.xlsx
+++ b/ResultsPrediction/rosegazzetta9.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vittu\Documents\Stupido\Betting\ResultsPrediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A32DB2A-CFC7-4E81-9D71-34453BFFF4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="236">
   <si>
     <t>SAS</t>
   </si>
@@ -184,37 +190,37 @@
     <t>DE LIGT</t>
   </si>
   <si>
-    <t>BONUCCI</t>
+    <t>FRABOTTA</t>
+  </si>
+  <si>
+    <t>CUADRADO</t>
+  </si>
+  <si>
+    <t>ARTHUR</t>
+  </si>
+  <si>
+    <t>RABIOT</t>
   </si>
   <si>
     <t>CHIESA</t>
   </si>
   <si>
-    <t>BENTANCUR</t>
-  </si>
-  <si>
-    <t>RABIOT</t>
-  </si>
-  <si>
-    <t>FRABOTTA</t>
-  </si>
-  <si>
     <t>RAMSEY</t>
   </si>
   <si>
+    <t>DYBALA</t>
+  </si>
+  <si>
     <t>MORATA</t>
   </si>
   <si>
-    <t>DYBALA</t>
-  </si>
-  <si>
     <t>GOLLINI</t>
   </si>
   <si>
-    <t>SUTALO</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
+    <t>TOLOI</t>
+  </si>
+  <si>
+    <t>PALOMINO</t>
   </si>
   <si>
     <t>DJIMSITI</t>
@@ -223,19 +229,16 @@
     <t>HATEBOER</t>
   </si>
   <si>
-    <t xml:space="preserve">DE ROON </t>
-  </si>
-  <si>
     <t>FREULER</t>
   </si>
   <si>
-    <t>RUGGERI</t>
+    <t>MOJICA</t>
   </si>
   <si>
     <t>GOMEZ</t>
   </si>
   <si>
-    <t>MURIEL</t>
+    <t>ILICIC</t>
   </si>
   <si>
     <t>ZAPATA</t>
@@ -244,7 +247,7 @@
     <t>SILVESTRI</t>
   </si>
   <si>
-    <t>CETIN</t>
+    <t>LOVATO</t>
   </si>
   <si>
     <t>CECCHERINI</t>
@@ -259,7 +262,7 @@
     <t>TAMEZE</t>
   </si>
   <si>
-    <t>VELOSO</t>
+    <t>ILIC</t>
   </si>
   <si>
     <t>DIMARCO</t>
@@ -298,9 +301,6 @@
     <t>LUIS ALBERTO</t>
   </si>
   <si>
-    <t xml:space="preserve">FARES </t>
-  </si>
-  <si>
     <t>IMMOBILE</t>
   </si>
   <si>
@@ -355,7 +355,7 @@
     <t>SCHOUTEN</t>
   </si>
   <si>
-    <t>POLI</t>
+    <t>SVANBERG</t>
   </si>
   <si>
     <t>ORSOLINI</t>
@@ -376,18 +376,15 @@
     <t>MAGALLAN</t>
   </si>
   <si>
-    <t xml:space="preserve">MARRONE </t>
-  </si>
-  <si>
     <t>LUPERTO</t>
   </si>
   <si>
+    <t>PEREIRA</t>
+  </si>
+  <si>
     <t>MOLINA</t>
   </si>
   <si>
-    <t>BENALI</t>
-  </si>
-  <si>
     <t>PETRICCIONE</t>
   </si>
   <si>
@@ -418,15 +415,12 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>BENNACER</t>
+    <t>TONALI</t>
   </si>
   <si>
     <t>KESSIE</t>
   </si>
   <si>
-    <t xml:space="preserve">SAELEMAEKERS </t>
-  </si>
-  <si>
     <t>CALHANOGLU</t>
   </si>
   <si>
@@ -460,15 +454,15 @@
     <t>CASTROVILLI</t>
   </si>
   <si>
-    <t>BONAVENTURA</t>
+    <t>CALLEJON</t>
+  </si>
+  <si>
+    <t>VLAHOVIC</t>
   </si>
   <si>
     <t>RIBERY</t>
   </si>
   <si>
-    <t>VLAHOVIC</t>
-  </si>
-  <si>
     <t>CRAGNO</t>
   </si>
   <si>
@@ -496,9 +490,6 @@
     <t>JOAO PEDRO</t>
   </si>
   <si>
-    <t xml:space="preserve">SOTTIL </t>
-  </si>
-  <si>
     <t>PAVOLETTI</t>
   </si>
   <si>
@@ -553,7 +544,7 @@
     <t>FABIAN RUIZ</t>
   </si>
   <si>
-    <t>POLITANO</t>
+    <t>LOZANO</t>
   </si>
   <si>
     <t>ZIELINSKI</t>
@@ -571,7 +562,7 @@
     <t>MANCINI</t>
   </si>
   <si>
-    <t>SMALLING</t>
+    <t>CRISTANTE</t>
   </si>
   <si>
     <t>JUAN JESUS</t>
@@ -655,43 +646,34 @@
     <t>EKDAL</t>
   </si>
   <si>
-    <t xml:space="preserve"> JANKTO</t>
-  </si>
-  <si>
     <t>VERRE</t>
   </si>
   <si>
     <t>QUAGLIARELLA</t>
   </si>
   <si>
-    <t>MARCHETTI</t>
+    <t>PALEARI</t>
+  </si>
+  <si>
+    <t>BANI</t>
   </si>
   <si>
     <t>GOLDANIGA</t>
   </si>
   <si>
-    <t>C. ZAPATA</t>
-  </si>
-  <si>
-    <t>MASIELLO</t>
-  </si>
-  <si>
     <t>GHIGLIONE</t>
   </si>
   <si>
-    <t>ROVELLA</t>
+    <t>LERAGER</t>
   </si>
   <si>
     <t>BADELJ</t>
   </si>
   <si>
-    <t>LERAGER</t>
-  </si>
-  <si>
-    <t>LU. PELLEGRINI</t>
-  </si>
-  <si>
-    <t>PANDEV</t>
+    <t>STURARO</t>
+  </si>
+  <si>
+    <t>SHOMURODOV</t>
   </si>
   <si>
     <t>SCAMACCA</t>
@@ -700,7 +682,7 @@
     <t>SEPE</t>
   </si>
   <si>
-    <t>IACOPONI</t>
+    <t>BUSI</t>
   </si>
   <si>
     <t>OSORIO</t>
@@ -715,26 +697,44 @@
     <t>KUCKA</t>
   </si>
   <si>
-    <t>CYPRIEN</t>
+    <t>SCOZZARELLA</t>
   </si>
   <si>
     <t>KURTIC</t>
   </si>
   <si>
-    <t>BRUNETTA</t>
+    <t>KARAMOH</t>
   </si>
   <si>
     <t>GERVINHO</t>
   </si>
   <si>
-    <t>INGLESE</t>
+    <t>CORNELIUS</t>
+  </si>
+  <si>
+    <t>JANKTO</t>
+  </si>
+  <si>
+    <t>MARRONE</t>
+  </si>
+  <si>
+    <t>SAELEMAEKERS</t>
+  </si>
+  <si>
+    <t>SOTTIL</t>
+  </si>
+  <si>
+    <t>FARES</t>
+  </si>
+  <si>
+    <t>DE ROON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +797,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -843,7 +851,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,9 +883,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,6 +935,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1084,14 +1128,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1173,52 +1219,52 @@
         <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="R2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="T2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="U2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1238,52 +1284,52 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="S3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="T3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="U3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1303,52 +1349,52 @@
         <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="L4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="R4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="S4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T4" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1368,52 +1414,52 @@
         <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="R5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="S5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="T5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="U5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1433,52 +1479,52 @@
         <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O6" t="s">
         <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="R6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="S6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="T6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="U6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1495,55 +1541,55 @@
         <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="R7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="S7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="U7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1560,55 +1606,55 @@
         <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="T8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="U8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1625,55 +1671,55 @@
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="M9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="R9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="S9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="T9" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="U9" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1690,55 +1736,55 @@
         <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="S10" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="T10" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="U10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1755,55 +1801,55 @@
         <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="O11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="S11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="T11" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="U11" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1820,52 +1866,52 @@
         <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="S12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="T12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="U12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
